--- a/PhoenixCI/Excel_Template/40050.xlsx
+++ b/PhoenixCI/Excel_Template/40050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7009B057-4752-4002-BA3E-037C65C1B154}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3E2098-0B9A-4AD8-8A7E-CF593425754C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14895" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fut" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -472,7 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,75 +484,94 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -564,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -922,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
@@ -932,9 +950,9 @@
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="18" width="9" style="1"/>
@@ -942,65 +960,153 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="33">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="33">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1019,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1031,77 +1137,157 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9" style="12"/>
+    <col min="5" max="7" width="9" style="20"/>
     <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="12"/>
-    <col min="11" max="11" width="8.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="20"/>
+    <col min="11" max="11" width="8.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="22" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="33">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="33">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="16" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1134,11 +1320,11 @@
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="36" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="9" style="1"/>
@@ -1146,78 +1332,78 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" s="18" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" s="27" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" s="38" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1253,91 +1439,90 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9" style="12"/>
+    <col min="8" max="10" width="9" style="20"/>
     <col min="11" max="11" width="6.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="12"/>
-    <col min="14" max="14" width="8.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="6" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="20"/>
+    <col min="14" max="14" width="8.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="7" customWidth="1"/>
+    <col min="16" max="17" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="31" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="33">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1372,11 +1557,11 @@
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="36" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="9" style="1"/>
@@ -1384,78 +1569,78 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" s="18" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1491,91 +1676,91 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9" style="29"/>
+    <col min="8" max="10" width="9" style="40"/>
     <col min="11" max="11" width="6.125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="35"/>
-    <col min="14" max="14" width="8.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="6" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="46"/>
+    <col min="14" max="14" width="8.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="7" customWidth="1"/>
+    <col min="16" max="17" width="12.625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="60" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="33">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="24" t="s">
         <v>11</v>
       </c>
     </row>

--- a/PhoenixCI/Excel_Template/40050.xlsx
+++ b/PhoenixCI/Excel_Template/40050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3E2098-0B9A-4AD8-8A7E-CF593425754C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7009B057-4752-4002-BA3E-037C65C1B154}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14895" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fut" sheetId="4" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -471,7 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,94 +485,75 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -582,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -940,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
@@ -950,9 +932,9 @@
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="18" width="9" style="1"/>
@@ -960,153 +942,65 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="33">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" ht="33">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1125,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1137,157 +1031,77 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9" style="20"/>
+    <col min="5" max="7" width="9" style="12"/>
     <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="20"/>
-    <col min="11" max="11" width="8.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="12"/>
+    <col min="11" max="11" width="8.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:14" ht="42" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="33" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="33">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:14" ht="33">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" s="11" customFormat="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="11" customFormat="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" s="11" customFormat="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1320,11 +1134,11 @@
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="25" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="9" style="1"/>
@@ -1332,78 +1146,78 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" s="38" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:15" s="27" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1439,90 +1253,91 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="26" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9" style="20"/>
+    <col min="8" max="10" width="9" style="12"/>
     <col min="11" max="11" width="6.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="20"/>
-    <col min="14" max="14" width="8.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="7" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="12"/>
+    <col min="14" max="14" width="8.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="6" customWidth="1"/>
+    <col min="16" max="17" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="33">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:17" ht="33">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1557,11 +1372,11 @@
     <col min="2" max="2" width="10.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="9" style="1"/>
@@ -1569,78 +1384,78 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:15" ht="60" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1676,91 +1491,91 @@
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="26" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9" style="40"/>
+    <col min="8" max="10" width="9" style="29"/>
     <col min="11" max="11" width="6.125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="46"/>
-    <col min="14" max="14" width="8.125" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="7" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="35"/>
+    <col min="14" max="14" width="8.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="6" customWidth="1"/>
+    <col min="16" max="17" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="60" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="33">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:17" ht="33">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
